--- a/Credit_services/DriverData/IKano.xlsx
+++ b/Credit_services/DriverData/IKano.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21540" windowHeight="5190"/>
+    <workbookView windowHeight="5190" windowWidth="21540" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet2" r:id="rId2" sheetId="2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="237">
   <si>
     <t>DATABINDING</t>
   </si>
@@ -856,11 +856,15 @@
   <si>
     <t>600124079</t>
   </si>
+  <si>
+    <t>600124179</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -946,26 +950,26 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="15" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="15" quotePrefix="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -982,10 +986,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1020,7 +1024,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1055,7 +1059,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1143,7 +1147,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -1152,13 +1156,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1168,7 +1172,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1177,7 +1181,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1186,7 +1190,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1196,12 +1200,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -1232,7 +1236,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -1251,7 +1255,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1263,32 +1267,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BP23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BQ23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="26.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.140625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.140625" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="12.42578125" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="12" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="15" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="10.7109375" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="15.42578125" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="16.5703125" customWidth="1" collapsed="1"/>
-    <col min="31" max="38" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="26.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="31" max="38" customWidth="true" width="16.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:68" x14ac:dyDescent="0.25">
@@ -1504,7 +1508,7 @@
         <v>208</v>
       </c>
       <c r="D2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E2" t="s">
         <v>27</v>
@@ -1512,6 +1516,7 @@
       <c r="F2" t="s">
         <v>222</v>
       </c>
+      <c r="G2"/>
       <c r="H2" t="s">
         <v>159</v>
       </c>
@@ -1521,6 +1526,7 @@
       <c r="J2" s="5" t="s">
         <v>50</v>
       </c>
+      <c r="K2"/>
       <c r="L2" s="5" t="s">
         <v>53</v>
       </c>
@@ -1566,6 +1572,7 @@
       <c r="Z2" t="s">
         <v>30</v>
       </c>
+      <c r="AA2"/>
       <c r="AB2" t="s">
         <v>26</v>
       </c>
@@ -1578,21 +1585,53 @@
       <c r="AE2" s="5" t="s">
         <v>141</v>
       </c>
+      <c r="AF2"/>
+      <c r="AG2"/>
+      <c r="AH2"/>
+      <c r="AI2"/>
+      <c r="AJ2"/>
+      <c r="AK2"/>
       <c r="AL2" t="s">
         <v>152</v>
       </c>
+      <c r="AM2"/>
+      <c r="AN2"/>
+      <c r="AO2"/>
+      <c r="AP2"/>
+      <c r="AQ2"/>
+      <c r="AR2"/>
       <c r="AS2" t="s">
         <v>35</v>
       </c>
       <c r="AT2" t="s">
         <v>36</v>
       </c>
+      <c r="AU2"/>
+      <c r="AV2"/>
+      <c r="AW2"/>
+      <c r="AX2"/>
+      <c r="AY2"/>
+      <c r="AZ2"/>
+      <c r="BA2"/>
+      <c r="BB2"/>
+      <c r="BC2"/>
+      <c r="BD2"/>
+      <c r="BE2"/>
+      <c r="BF2"/>
+      <c r="BG2"/>
       <c r="BH2" t="s">
         <v>196</v>
       </c>
       <c r="BI2" t="s">
         <v>211</v>
       </c>
+      <c r="BJ2"/>
+      <c r="BK2"/>
+      <c r="BL2"/>
+      <c r="BM2"/>
+      <c r="BN2"/>
+      <c r="BO2"/>
+      <c r="BP2"/>
     </row>
     <row r="3" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1613,6 +1652,7 @@
       <c r="F3" t="s">
         <v>223</v>
       </c>
+      <c r="G3"/>
       <c r="H3" t="s">
         <v>160</v>
       </c>
@@ -1622,6 +1662,7 @@
       <c r="J3" s="5" t="s">
         <v>50</v>
       </c>
+      <c r="K3"/>
       <c r="L3" s="5" t="s">
         <v>51</v>
       </c>
@@ -1667,6 +1708,7 @@
       <c r="Z3" t="s">
         <v>82</v>
       </c>
+      <c r="AA3"/>
       <c r="AB3" t="s">
         <v>59</v>
       </c>
@@ -1679,21 +1721,53 @@
       <c r="AE3" s="5" t="s">
         <v>141</v>
       </c>
+      <c r="AF3"/>
+      <c r="AG3"/>
+      <c r="AH3"/>
+      <c r="AI3"/>
+      <c r="AJ3"/>
+      <c r="AK3"/>
       <c r="AL3" t="s">
         <v>153</v>
       </c>
+      <c r="AM3"/>
+      <c r="AN3"/>
+      <c r="AO3"/>
+      <c r="AP3"/>
+      <c r="AQ3"/>
+      <c r="AR3"/>
       <c r="AS3" t="s">
         <v>82</v>
       </c>
       <c r="AT3" t="s">
         <v>88</v>
       </c>
+      <c r="AU3"/>
+      <c r="AV3"/>
+      <c r="AW3"/>
+      <c r="AX3"/>
+      <c r="AY3"/>
+      <c r="AZ3"/>
+      <c r="BA3"/>
+      <c r="BB3"/>
+      <c r="BC3"/>
+      <c r="BD3"/>
+      <c r="BE3"/>
+      <c r="BF3"/>
+      <c r="BG3"/>
       <c r="BH3" t="s">
         <v>196</v>
       </c>
       <c r="BI3" t="s">
         <v>211</v>
       </c>
+      <c r="BJ3"/>
+      <c r="BK3"/>
+      <c r="BL3"/>
+      <c r="BM3"/>
+      <c r="BN3"/>
+      <c r="BO3"/>
+      <c r="BP3"/>
     </row>
     <row r="4" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1714,6 +1788,7 @@
       <c r="F4" t="s">
         <v>224</v>
       </c>
+      <c r="G4"/>
       <c r="H4" t="s">
         <v>160</v>
       </c>
@@ -1723,6 +1798,7 @@
       <c r="J4" s="5" t="s">
         <v>50</v>
       </c>
+      <c r="K4"/>
       <c r="L4" s="5" t="s">
         <v>54</v>
       </c>
@@ -1768,6 +1844,7 @@
       <c r="Z4" t="s">
         <v>83</v>
       </c>
+      <c r="AA4"/>
       <c r="AB4" t="s">
         <v>60</v>
       </c>
@@ -1780,21 +1857,53 @@
       <c r="AE4" s="5" t="s">
         <v>141</v>
       </c>
+      <c r="AF4"/>
+      <c r="AG4"/>
+      <c r="AH4"/>
+      <c r="AI4"/>
+      <c r="AJ4"/>
+      <c r="AK4"/>
       <c r="AL4" t="s">
         <v>154</v>
       </c>
+      <c r="AM4"/>
+      <c r="AN4"/>
+      <c r="AO4"/>
+      <c r="AP4"/>
+      <c r="AQ4"/>
+      <c r="AR4"/>
       <c r="AS4" t="s">
         <v>83</v>
       </c>
       <c r="AT4" t="s">
         <v>89</v>
       </c>
+      <c r="AU4"/>
+      <c r="AV4"/>
+      <c r="AW4"/>
+      <c r="AX4"/>
+      <c r="AY4"/>
+      <c r="AZ4"/>
+      <c r="BA4"/>
+      <c r="BB4"/>
+      <c r="BC4"/>
+      <c r="BD4"/>
+      <c r="BE4"/>
+      <c r="BF4"/>
+      <c r="BG4"/>
       <c r="BH4" t="s">
         <v>196</v>
       </c>
       <c r="BI4" t="s">
         <v>211</v>
       </c>
+      <c r="BJ4"/>
+      <c r="BK4"/>
+      <c r="BL4"/>
+      <c r="BM4"/>
+      <c r="BN4"/>
+      <c r="BO4"/>
+      <c r="BP4"/>
     </row>
     <row r="5" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1815,6 +1924,7 @@
       <c r="F5" t="s">
         <v>225</v>
       </c>
+      <c r="G5"/>
       <c r="H5" t="s">
         <v>161</v>
       </c>
@@ -1824,6 +1934,7 @@
       <c r="J5" s="5" t="s">
         <v>194</v>
       </c>
+      <c r="K5"/>
       <c r="L5" s="5" t="s">
         <v>56</v>
       </c>
@@ -1869,6 +1980,7 @@
       <c r="Z5" t="s">
         <v>84</v>
       </c>
+      <c r="AA5"/>
       <c r="AB5" t="s">
         <v>61</v>
       </c>
@@ -1881,21 +1993,53 @@
       <c r="AE5" s="5" t="s">
         <v>141</v>
       </c>
+      <c r="AF5"/>
+      <c r="AG5"/>
+      <c r="AH5"/>
+      <c r="AI5"/>
+      <c r="AJ5"/>
+      <c r="AK5"/>
       <c r="AL5" t="s">
         <v>155</v>
       </c>
+      <c r="AM5"/>
+      <c r="AN5"/>
+      <c r="AO5"/>
+      <c r="AP5"/>
+      <c r="AQ5"/>
+      <c r="AR5"/>
       <c r="AS5" t="s">
         <v>84</v>
       </c>
       <c r="AT5" t="s">
         <v>90</v>
       </c>
+      <c r="AU5"/>
+      <c r="AV5"/>
+      <c r="AW5"/>
+      <c r="AX5"/>
+      <c r="AY5"/>
+      <c r="AZ5"/>
+      <c r="BA5"/>
+      <c r="BB5"/>
+      <c r="BC5"/>
+      <c r="BD5"/>
+      <c r="BE5"/>
+      <c r="BF5"/>
+      <c r="BG5"/>
       <c r="BH5" t="s">
         <v>196</v>
       </c>
       <c r="BI5" t="s">
         <v>211</v>
       </c>
+      <c r="BJ5"/>
+      <c r="BK5"/>
+      <c r="BL5"/>
+      <c r="BM5"/>
+      <c r="BN5"/>
+      <c r="BO5"/>
+      <c r="BP5"/>
     </row>
     <row r="6" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1916,6 +2060,7 @@
       <c r="F6" t="s">
         <v>227</v>
       </c>
+      <c r="G6"/>
       <c r="H6" t="s">
         <v>162</v>
       </c>
@@ -1925,6 +2070,7 @@
       <c r="J6" s="5" t="s">
         <v>50</v>
       </c>
+      <c r="K6"/>
       <c r="L6" s="5" t="s">
         <v>55</v>
       </c>
@@ -1970,6 +2116,7 @@
       <c r="Z6" t="s">
         <v>85</v>
       </c>
+      <c r="AA6"/>
       <c r="AB6" t="s">
         <v>62</v>
       </c>
@@ -1982,21 +2129,53 @@
       <c r="AE6" s="5" t="s">
         <v>141</v>
       </c>
+      <c r="AF6"/>
+      <c r="AG6"/>
+      <c r="AH6"/>
+      <c r="AI6"/>
+      <c r="AJ6"/>
+      <c r="AK6"/>
       <c r="AL6" t="s">
         <v>156</v>
       </c>
+      <c r="AM6"/>
+      <c r="AN6"/>
+      <c r="AO6"/>
+      <c r="AP6"/>
+      <c r="AQ6"/>
+      <c r="AR6"/>
       <c r="AS6" t="s">
         <v>85</v>
       </c>
       <c r="AT6" t="s">
         <v>91</v>
       </c>
+      <c r="AU6"/>
+      <c r="AV6"/>
+      <c r="AW6"/>
+      <c r="AX6"/>
+      <c r="AY6"/>
+      <c r="AZ6"/>
+      <c r="BA6"/>
+      <c r="BB6"/>
+      <c r="BC6"/>
+      <c r="BD6"/>
+      <c r="BE6"/>
+      <c r="BF6"/>
+      <c r="BG6"/>
       <c r="BH6" t="s">
         <v>196</v>
       </c>
       <c r="BI6" t="s">
         <v>211</v>
       </c>
+      <c r="BJ6"/>
+      <c r="BK6"/>
+      <c r="BL6"/>
+      <c r="BM6"/>
+      <c r="BN6"/>
+      <c r="BO6"/>
+      <c r="BP6"/>
     </row>
     <row r="7" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2017,6 +2196,7 @@
       <c r="F7" t="s">
         <v>226</v>
       </c>
+      <c r="G7"/>
       <c r="H7" t="s">
         <v>163</v>
       </c>
@@ -2026,6 +2206,7 @@
       <c r="J7" s="5" t="s">
         <v>50</v>
       </c>
+      <c r="K7"/>
       <c r="L7" s="5" t="s">
         <v>57</v>
       </c>
@@ -2071,6 +2252,7 @@
       <c r="Z7" t="s">
         <v>86</v>
       </c>
+      <c r="AA7"/>
       <c r="AB7" t="s">
         <v>63</v>
       </c>
@@ -2083,21 +2265,53 @@
       <c r="AE7" s="5" t="s">
         <v>141</v>
       </c>
+      <c r="AF7"/>
+      <c r="AG7"/>
+      <c r="AH7"/>
+      <c r="AI7"/>
+      <c r="AJ7"/>
+      <c r="AK7"/>
       <c r="AL7" t="s">
         <v>157</v>
       </c>
+      <c r="AM7"/>
+      <c r="AN7"/>
+      <c r="AO7"/>
+      <c r="AP7"/>
+      <c r="AQ7"/>
+      <c r="AR7"/>
       <c r="AS7" t="s">
         <v>86</v>
       </c>
       <c r="AT7" t="s">
         <v>92</v>
       </c>
+      <c r="AU7"/>
+      <c r="AV7"/>
+      <c r="AW7"/>
+      <c r="AX7"/>
+      <c r="AY7"/>
+      <c r="AZ7"/>
+      <c r="BA7"/>
+      <c r="BB7"/>
+      <c r="BC7"/>
+      <c r="BD7"/>
+      <c r="BE7"/>
+      <c r="BF7"/>
+      <c r="BG7"/>
       <c r="BH7" t="s">
         <v>196</v>
       </c>
       <c r="BI7" t="s">
         <v>211</v>
       </c>
+      <c r="BJ7"/>
+      <c r="BK7"/>
+      <c r="BL7"/>
+      <c r="BM7"/>
+      <c r="BN7"/>
+      <c r="BO7"/>
+      <c r="BP7"/>
     </row>
     <row r="8" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2118,6 +2332,7 @@
       <c r="F8" t="s">
         <v>228</v>
       </c>
+      <c r="G8"/>
       <c r="H8" t="s">
         <v>163</v>
       </c>
@@ -2127,6 +2342,7 @@
       <c r="J8" s="5" t="s">
         <v>50</v>
       </c>
+      <c r="K8"/>
       <c r="L8" s="5" t="s">
         <v>58</v>
       </c>
@@ -2172,6 +2388,7 @@
       <c r="Z8" t="s">
         <v>87</v>
       </c>
+      <c r="AA8"/>
       <c r="AB8" t="s">
         <v>64</v>
       </c>
@@ -2184,21 +2401,53 @@
       <c r="AE8" s="5" t="s">
         <v>141</v>
       </c>
+      <c r="AF8"/>
+      <c r="AG8"/>
+      <c r="AH8"/>
+      <c r="AI8"/>
+      <c r="AJ8"/>
+      <c r="AK8"/>
       <c r="AL8" t="s">
         <v>193</v>
       </c>
+      <c r="AM8"/>
+      <c r="AN8"/>
+      <c r="AO8"/>
+      <c r="AP8"/>
+      <c r="AQ8"/>
+      <c r="AR8"/>
       <c r="AS8" t="s">
         <v>87</v>
       </c>
       <c r="AT8" t="s">
         <v>93</v>
       </c>
+      <c r="AU8"/>
+      <c r="AV8"/>
+      <c r="AW8"/>
+      <c r="AX8"/>
+      <c r="AY8"/>
+      <c r="AZ8"/>
+      <c r="BA8"/>
+      <c r="BB8"/>
+      <c r="BC8"/>
+      <c r="BD8"/>
+      <c r="BE8"/>
+      <c r="BF8"/>
+      <c r="BG8"/>
       <c r="BH8" t="s">
         <v>196</v>
       </c>
       <c r="BI8" t="s">
         <v>211</v>
       </c>
+      <c r="BJ8"/>
+      <c r="BK8"/>
+      <c r="BL8"/>
+      <c r="BM8"/>
+      <c r="BN8"/>
+      <c r="BO8"/>
+      <c r="BP8"/>
     </row>
     <row r="9" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2219,9 +2468,13 @@
       <c r="F9" t="s">
         <v>229</v>
       </c>
+      <c r="G9"/>
+      <c r="H9"/>
       <c r="I9" s="5" t="s">
         <v>49</v>
       </c>
+      <c r="J9"/>
+      <c r="K9"/>
       <c r="L9" s="5" t="s">
         <v>96</v>
       </c>
@@ -2267,6 +2520,7 @@
       <c r="Z9" t="s">
         <v>130</v>
       </c>
+      <c r="AA9"/>
       <c r="AB9" t="s">
         <v>99</v>
       </c>
@@ -2279,21 +2533,53 @@
       <c r="AE9" s="5" t="s">
         <v>141</v>
       </c>
+      <c r="AF9"/>
+      <c r="AG9"/>
+      <c r="AH9"/>
+      <c r="AI9"/>
+      <c r="AJ9"/>
+      <c r="AK9"/>
       <c r="AL9" t="s">
         <v>158</v>
       </c>
+      <c r="AM9"/>
+      <c r="AN9"/>
+      <c r="AO9"/>
+      <c r="AP9"/>
+      <c r="AQ9"/>
+      <c r="AR9"/>
       <c r="AS9" t="s">
         <v>132</v>
       </c>
       <c r="AT9" t="s">
         <v>133</v>
       </c>
+      <c r="AU9"/>
+      <c r="AV9"/>
+      <c r="AW9"/>
+      <c r="AX9"/>
+      <c r="AY9"/>
+      <c r="AZ9"/>
+      <c r="BA9"/>
+      <c r="BB9"/>
+      <c r="BC9"/>
+      <c r="BD9"/>
+      <c r="BE9"/>
+      <c r="BF9"/>
+      <c r="BG9"/>
       <c r="BH9" t="s">
         <v>196</v>
       </c>
       <c r="BI9" t="s">
         <v>211</v>
       </c>
+      <c r="BJ9"/>
+      <c r="BK9"/>
+      <c r="BL9"/>
+      <c r="BM9"/>
+      <c r="BN9"/>
+      <c r="BO9"/>
+      <c r="BP9"/>
     </row>
     <row r="10" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2314,9 +2600,13 @@
       <c r="F10" t="s">
         <v>223</v>
       </c>
+      <c r="G10"/>
+      <c r="H10"/>
       <c r="I10" s="5" t="s">
         <v>49</v>
       </c>
+      <c r="J10"/>
+      <c r="K10"/>
       <c r="L10" s="5" t="s">
         <v>97</v>
       </c>
@@ -2362,6 +2652,7 @@
       <c r="Z10" t="s">
         <v>117</v>
       </c>
+      <c r="AA10"/>
       <c r="AB10" t="s">
         <v>125</v>
       </c>
@@ -2374,21 +2665,53 @@
       <c r="AE10" s="5" t="s">
         <v>141</v>
       </c>
+      <c r="AF10"/>
+      <c r="AG10"/>
+      <c r="AH10"/>
+      <c r="AI10"/>
+      <c r="AJ10"/>
+      <c r="AK10"/>
       <c r="AL10" t="s">
         <v>165</v>
       </c>
+      <c r="AM10"/>
+      <c r="AN10"/>
+      <c r="AO10"/>
+      <c r="AP10"/>
+      <c r="AQ10"/>
+      <c r="AR10"/>
       <c r="AS10" t="s">
         <v>117</v>
       </c>
       <c r="AT10" t="s">
         <v>118</v>
       </c>
+      <c r="AU10"/>
+      <c r="AV10"/>
+      <c r="AW10"/>
+      <c r="AX10"/>
+      <c r="AY10"/>
+      <c r="AZ10"/>
+      <c r="BA10"/>
+      <c r="BB10"/>
+      <c r="BC10"/>
+      <c r="BD10"/>
+      <c r="BE10"/>
+      <c r="BF10"/>
+      <c r="BG10"/>
       <c r="BH10" t="s">
         <v>196</v>
       </c>
       <c r="BI10" t="s">
         <v>211</v>
       </c>
+      <c r="BJ10"/>
+      <c r="BK10"/>
+      <c r="BL10"/>
+      <c r="BM10"/>
+      <c r="BN10"/>
+      <c r="BO10"/>
+      <c r="BP10"/>
     </row>
     <row r="11" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2409,9 +2732,13 @@
       <c r="F11" t="s">
         <v>231</v>
       </c>
+      <c r="G11"/>
+      <c r="H11"/>
       <c r="I11" s="5" t="s">
         <v>49</v>
       </c>
+      <c r="J11"/>
+      <c r="K11"/>
       <c r="L11" s="5" t="s">
         <v>95</v>
       </c>
@@ -2457,6 +2784,7 @@
       <c r="Z11" t="s">
         <v>120</v>
       </c>
+      <c r="AA11"/>
       <c r="AB11" t="s">
         <v>126</v>
       </c>
@@ -2469,21 +2797,53 @@
       <c r="AE11" s="5" t="s">
         <v>141</v>
       </c>
+      <c r="AF11"/>
+      <c r="AG11"/>
+      <c r="AH11"/>
+      <c r="AI11"/>
+      <c r="AJ11"/>
+      <c r="AK11"/>
       <c r="AL11" t="s">
         <v>164</v>
       </c>
+      <c r="AM11"/>
+      <c r="AN11"/>
+      <c r="AO11"/>
+      <c r="AP11"/>
+      <c r="AQ11"/>
+      <c r="AR11"/>
       <c r="AS11" t="s">
         <v>120</v>
       </c>
       <c r="AT11" t="s">
         <v>119</v>
       </c>
+      <c r="AU11"/>
+      <c r="AV11"/>
+      <c r="AW11"/>
+      <c r="AX11"/>
+      <c r="AY11"/>
+      <c r="AZ11"/>
+      <c r="BA11"/>
+      <c r="BB11"/>
+      <c r="BC11"/>
+      <c r="BD11"/>
+      <c r="BE11"/>
+      <c r="BF11"/>
+      <c r="BG11"/>
       <c r="BH11" t="s">
         <v>196</v>
       </c>
       <c r="BI11" t="s">
         <v>211</v>
       </c>
+      <c r="BJ11"/>
+      <c r="BK11"/>
+      <c r="BL11"/>
+      <c r="BM11"/>
+      <c r="BN11"/>
+      <c r="BO11"/>
+      <c r="BP11"/>
     </row>
     <row r="12" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2504,9 +2864,13 @@
       <c r="F12" t="s">
         <v>230</v>
       </c>
+      <c r="G12"/>
+      <c r="H12"/>
       <c r="I12" s="5" t="s">
         <v>49</v>
       </c>
+      <c r="J12"/>
+      <c r="K12"/>
       <c r="L12" s="5" t="s">
         <v>129</v>
       </c>
@@ -2552,6 +2916,7 @@
       <c r="Z12" t="s">
         <v>121</v>
       </c>
+      <c r="AA12"/>
       <c r="AB12" t="s">
         <v>127</v>
       </c>
@@ -2564,21 +2929,53 @@
       <c r="AE12" s="5" t="s">
         <v>141</v>
       </c>
+      <c r="AF12"/>
+      <c r="AG12"/>
+      <c r="AH12"/>
+      <c r="AI12"/>
+      <c r="AJ12"/>
+      <c r="AK12"/>
       <c r="AL12" t="s">
         <v>165</v>
       </c>
+      <c r="AM12"/>
+      <c r="AN12"/>
+      <c r="AO12"/>
+      <c r="AP12"/>
+      <c r="AQ12"/>
+      <c r="AR12"/>
       <c r="AS12" t="s">
         <v>121</v>
       </c>
       <c r="AT12" t="s">
         <v>122</v>
       </c>
+      <c r="AU12"/>
+      <c r="AV12"/>
+      <c r="AW12"/>
+      <c r="AX12"/>
+      <c r="AY12"/>
+      <c r="AZ12"/>
+      <c r="BA12"/>
+      <c r="BB12"/>
+      <c r="BC12"/>
+      <c r="BD12"/>
+      <c r="BE12"/>
+      <c r="BF12"/>
+      <c r="BG12"/>
       <c r="BH12" t="s">
         <v>196</v>
       </c>
       <c r="BI12" t="s">
         <v>211</v>
       </c>
+      <c r="BJ12"/>
+      <c r="BK12"/>
+      <c r="BL12"/>
+      <c r="BM12"/>
+      <c r="BN12"/>
+      <c r="BO12"/>
+      <c r="BP12"/>
     </row>
     <row r="13" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -2599,9 +2996,13 @@
       <c r="F13" t="s">
         <v>232</v>
       </c>
+      <c r="G13"/>
+      <c r="H13"/>
       <c r="I13" s="5" t="s">
         <v>49</v>
       </c>
+      <c r="J13"/>
+      <c r="K13"/>
       <c r="L13" s="5" t="s">
         <v>98</v>
       </c>
@@ -2647,6 +3048,7 @@
       <c r="Z13" t="s">
         <v>123</v>
       </c>
+      <c r="AA13"/>
       <c r="AB13" t="s">
         <v>134</v>
       </c>
@@ -2659,21 +3061,53 @@
       <c r="AE13" s="5" t="s">
         <v>141</v>
       </c>
+      <c r="AF13"/>
+      <c r="AG13"/>
+      <c r="AH13"/>
+      <c r="AI13"/>
+      <c r="AJ13"/>
+      <c r="AK13"/>
       <c r="AL13" t="s">
         <v>166</v>
       </c>
+      <c r="AM13"/>
+      <c r="AN13"/>
+      <c r="AO13"/>
+      <c r="AP13"/>
+      <c r="AQ13"/>
+      <c r="AR13"/>
       <c r="AS13" t="s">
         <v>123</v>
       </c>
       <c r="AT13" t="s">
         <v>124</v>
       </c>
+      <c r="AU13"/>
+      <c r="AV13"/>
+      <c r="AW13"/>
+      <c r="AX13"/>
+      <c r="AY13"/>
+      <c r="AZ13"/>
+      <c r="BA13"/>
+      <c r="BB13"/>
+      <c r="BC13"/>
+      <c r="BD13"/>
+      <c r="BE13"/>
+      <c r="BF13"/>
+      <c r="BG13"/>
       <c r="BH13" t="s">
         <v>196</v>
       </c>
       <c r="BI13" t="s">
         <v>211</v>
       </c>
+      <c r="BJ13"/>
+      <c r="BK13"/>
+      <c r="BL13"/>
+      <c r="BM13"/>
+      <c r="BN13"/>
+      <c r="BO13"/>
+      <c r="BP13"/>
     </row>
     <row r="14" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -2691,6 +3125,16 @@
       <c r="E14" t="s">
         <v>202</v>
       </c>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
       <c r="P14" s="4" t="s">
         <v>38</v>
       </c>
@@ -2724,6 +3168,7 @@
       <c r="Z14" t="s">
         <v>123</v>
       </c>
+      <c r="AA14"/>
       <c r="AB14" t="s">
         <v>192</v>
       </c>
@@ -2745,6 +3190,16 @@
       <c r="AH14" s="6" t="s">
         <v>173</v>
       </c>
+      <c r="AI14"/>
+      <c r="AJ14"/>
+      <c r="AK14"/>
+      <c r="AL14"/>
+      <c r="AM14"/>
+      <c r="AN14"/>
+      <c r="AO14"/>
+      <c r="AP14"/>
+      <c r="AQ14"/>
+      <c r="AR14"/>
       <c r="AS14" t="s">
         <v>123</v>
       </c>
@@ -2787,6 +3242,16 @@
       <c r="BF14" s="5" t="s">
         <v>190</v>
       </c>
+      <c r="BG14"/>
+      <c r="BH14"/>
+      <c r="BI14"/>
+      <c r="BJ14"/>
+      <c r="BK14"/>
+      <c r="BL14"/>
+      <c r="BM14"/>
+      <c r="BN14"/>
+      <c r="BO14"/>
+      <c r="BP14"/>
     </row>
     <row r="15" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -2798,6 +3263,34 @@
       <c r="C15" t="s">
         <v>204</v>
       </c>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+      <c r="R15"/>
+      <c r="S15"/>
+      <c r="T15"/>
+      <c r="U15"/>
+      <c r="V15"/>
+      <c r="W15"/>
+      <c r="X15"/>
+      <c r="Y15"/>
+      <c r="Z15"/>
+      <c r="AA15"/>
+      <c r="AB15"/>
+      <c r="AC15"/>
+      <c r="AD15"/>
+      <c r="AE15"/>
       <c r="AF15" s="6" t="s">
         <v>171</v>
       </c>
@@ -2807,6 +3300,16 @@
       <c r="AH15" s="6" t="s">
         <v>173</v>
       </c>
+      <c r="AI15"/>
+      <c r="AJ15"/>
+      <c r="AK15"/>
+      <c r="AL15"/>
+      <c r="AM15"/>
+      <c r="AN15"/>
+      <c r="AO15"/>
+      <c r="AP15"/>
+      <c r="AQ15"/>
+      <c r="AR15"/>
       <c r="AS15" t="s">
         <v>123</v>
       </c>
@@ -2849,6 +3352,16 @@
       <c r="BF15" s="5" t="s">
         <v>190</v>
       </c>
+      <c r="BG15"/>
+      <c r="BH15"/>
+      <c r="BI15"/>
+      <c r="BJ15"/>
+      <c r="BK15"/>
+      <c r="BL15"/>
+      <c r="BM15"/>
+      <c r="BN15"/>
+      <c r="BO15"/>
+      <c r="BP15"/>
     </row>
     <row r="16" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -2860,6 +3373,34 @@
       <c r="C16" t="s">
         <v>204</v>
       </c>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16"/>
+      <c r="R16"/>
+      <c r="S16"/>
+      <c r="T16"/>
+      <c r="U16"/>
+      <c r="V16"/>
+      <c r="W16"/>
+      <c r="X16"/>
+      <c r="Y16"/>
+      <c r="Z16"/>
+      <c r="AA16"/>
+      <c r="AB16"/>
+      <c r="AC16"/>
+      <c r="AD16"/>
+      <c r="AE16"/>
       <c r="AF16" s="6" t="s">
         <v>171</v>
       </c>
@@ -2869,6 +3410,16 @@
       <c r="AH16" s="6" t="s">
         <v>173</v>
       </c>
+      <c r="AI16"/>
+      <c r="AJ16"/>
+      <c r="AK16"/>
+      <c r="AL16"/>
+      <c r="AM16"/>
+      <c r="AN16"/>
+      <c r="AO16"/>
+      <c r="AP16"/>
+      <c r="AQ16"/>
+      <c r="AR16"/>
       <c r="AS16" t="s">
         <v>123</v>
       </c>
@@ -2911,6 +3462,16 @@
       <c r="BF16" s="5" t="s">
         <v>190</v>
       </c>
+      <c r="BG16"/>
+      <c r="BH16"/>
+      <c r="BI16"/>
+      <c r="BJ16"/>
+      <c r="BK16"/>
+      <c r="BL16"/>
+      <c r="BM16"/>
+      <c r="BN16"/>
+      <c r="BO16"/>
+      <c r="BP16"/>
     </row>
     <row r="17" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -2922,6 +3483,34 @@
       <c r="C17" t="s">
         <v>204</v>
       </c>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17"/>
+      <c r="Q17"/>
+      <c r="R17"/>
+      <c r="S17"/>
+      <c r="T17"/>
+      <c r="U17"/>
+      <c r="V17"/>
+      <c r="W17"/>
+      <c r="X17"/>
+      <c r="Y17"/>
+      <c r="Z17"/>
+      <c r="AA17"/>
+      <c r="AB17"/>
+      <c r="AC17"/>
+      <c r="AD17"/>
+      <c r="AE17"/>
       <c r="AF17" s="6" t="s">
         <v>171</v>
       </c>
@@ -2931,6 +3520,16 @@
       <c r="AH17" s="6" t="s">
         <v>173</v>
       </c>
+      <c r="AI17"/>
+      <c r="AJ17"/>
+      <c r="AK17"/>
+      <c r="AL17"/>
+      <c r="AM17"/>
+      <c r="AN17"/>
+      <c r="AO17"/>
+      <c r="AP17"/>
+      <c r="AQ17"/>
+      <c r="AR17"/>
       <c r="AS17" t="s">
         <v>123</v>
       </c>
@@ -2973,8 +3572,18 @@
       <c r="BF17" s="5" t="s">
         <v>190</v>
       </c>
+      <c r="BG17"/>
+      <c r="BH17"/>
+      <c r="BI17"/>
+      <c r="BJ17"/>
+      <c r="BK17"/>
+      <c r="BL17"/>
+      <c r="BM17"/>
+      <c r="BN17"/>
+      <c r="BO17"/>
+      <c r="BP17"/>
     </row>
-    <row r="18" spans="1:68" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="18" s="8" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>135</v>
       </c>
@@ -2985,7 +3594,7 @@
         <v>142</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>27</v>
@@ -3058,7 +3667,7 @@
       <c r="BO18"/>
       <c r="BP18"/>
     </row>
-    <row r="19" spans="1:68" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="19" s="8" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>143</v>
       </c>
@@ -3141,24 +3750,158 @@
       <c r="BP19"/>
     </row>
     <row r="22" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A22"/>
+      <c r="B22"/>
       <c r="C22" t="s">
         <v>167</v>
       </c>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22"/>
+      <c r="R22"/>
+      <c r="S22"/>
+      <c r="T22"/>
+      <c r="U22"/>
+      <c r="V22"/>
+      <c r="W22"/>
+      <c r="X22"/>
+      <c r="Y22"/>
+      <c r="Z22"/>
+      <c r="AA22"/>
+      <c r="AB22"/>
+      <c r="AC22"/>
+      <c r="AD22"/>
+      <c r="AE22"/>
+      <c r="AF22"/>
+      <c r="AG22"/>
+      <c r="AH22"/>
+      <c r="AI22"/>
+      <c r="AJ22"/>
+      <c r="AK22"/>
+      <c r="AL22"/>
+      <c r="AM22"/>
+      <c r="AN22"/>
+      <c r="AO22"/>
+      <c r="AP22"/>
+      <c r="AQ22"/>
+      <c r="AR22"/>
+      <c r="AS22"/>
+      <c r="AT22"/>
+      <c r="AU22"/>
+      <c r="AV22"/>
+      <c r="AW22"/>
+      <c r="AX22"/>
+      <c r="AY22"/>
+      <c r="AZ22"/>
+      <c r="BA22"/>
+      <c r="BB22"/>
+      <c r="BC22"/>
+      <c r="BD22"/>
+      <c r="BE22"/>
+      <c r="BF22"/>
+      <c r="BG22"/>
+      <c r="BH22"/>
+      <c r="BI22"/>
+      <c r="BJ22"/>
+      <c r="BK22"/>
+      <c r="BL22"/>
+      <c r="BM22"/>
+      <c r="BN22"/>
+      <c r="BO22"/>
+      <c r="BP22"/>
     </row>
     <row r="23" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A23"/>
+      <c r="B23"/>
       <c r="C23" t="s">
         <v>208</v>
       </c>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23"/>
+      <c r="Q23"/>
+      <c r="R23"/>
+      <c r="S23"/>
+      <c r="T23"/>
+      <c r="U23"/>
+      <c r="V23"/>
+      <c r="W23"/>
+      <c r="X23"/>
+      <c r="Y23"/>
+      <c r="Z23"/>
+      <c r="AA23"/>
+      <c r="AB23"/>
+      <c r="AC23"/>
+      <c r="AD23"/>
+      <c r="AE23"/>
+      <c r="AF23"/>
+      <c r="AG23"/>
+      <c r="AH23"/>
+      <c r="AI23"/>
+      <c r="AJ23"/>
+      <c r="AK23"/>
+      <c r="AL23"/>
+      <c r="AM23"/>
+      <c r="AN23"/>
+      <c r="AO23"/>
+      <c r="AP23"/>
+      <c r="AQ23"/>
+      <c r="AR23"/>
+      <c r="AS23"/>
+      <c r="AT23"/>
+      <c r="AU23"/>
+      <c r="AV23"/>
+      <c r="AW23"/>
+      <c r="AX23"/>
+      <c r="AY23"/>
+      <c r="AZ23"/>
+      <c r="BA23"/>
+      <c r="BB23"/>
+      <c r="BC23"/>
+      <c r="BD23"/>
+      <c r="BE23"/>
+      <c r="BF23"/>
+      <c r="BG23"/>
+      <c r="BH23"/>
+      <c r="BI23"/>
+      <c r="BJ23"/>
+      <c r="BK23"/>
+      <c r="BL23"/>
+      <c r="BM23"/>
+      <c r="BN23"/>
+      <c r="BO23"/>
+      <c r="BP23"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F22" sqref="F22:F23"/>
@@ -3166,9 +3909,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3187,7 +3930,7 @@
         <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -3351,23 +4094,31 @@
       <c r="A14" t="s">
         <v>192</v>
       </c>
+      <c r="B14"/>
+      <c r="C14"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>205</v>
       </c>
+      <c r="B15"/>
+      <c r="C15"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>206</v>
       </c>
+      <c r="B16"/>
+      <c r="C16"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>207</v>
       </c>
+      <c r="B17"/>
+      <c r="C17"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Credit_services/DriverData/IKano.xlsx
+++ b/Credit_services/DriverData/IKano.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="242">
   <si>
     <t>DATABINDING</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>VerificationData</t>
-  </si>
-  <si>
-    <t>VerificationData2</t>
   </si>
   <si>
     <t>VerificationData3</t>
@@ -854,10 +851,28 @@
     <t>700124072</t>
   </si>
   <si>
-    <t>600124079</t>
-  </si>
-  <si>
-    <t>600124179</t>
+    <t>InitiateChromeDriver,Tesco_Login,Start_App,Loan_Page,Personal_Page,Address_Page,Employee_Page,Financial_Page,Marketing_Page,Frontoffice_Login,Accept_step,Tesco_Login,Search_Agreement,Esign_Agreement,Tesco_Login,check_agreement_status,</t>
+  </si>
+  <si>
+    <t>10-Aug-2016</t>
+  </si>
+  <si>
+    <t>Load TESTCO Payment Request File,Process TESTCO Payment Request File</t>
+  </si>
+  <si>
+    <t>EG_IK</t>
+  </si>
+  <si>
+    <t>BO_status</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>600124185</t>
+  </si>
+  <si>
+    <t>InitiateChromeDriver,BO_Login,Batchrun,BO_Status_check</t>
   </si>
 </sst>
 </file>
@@ -1268,9 +1283,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BQ23"/>
+  <dimension ref="A1:BQ24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1282,6 +1297,7 @@
     <col min="4" max="4" customWidth="true" width="26.85546875" collapsed="true"/>
     <col min="6" max="6" customWidth="true" width="18.85546875" collapsed="true"/>
     <col min="7" max="7" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="14.7109375" collapsed="true"/>
     <col min="9" max="9" customWidth="true" width="10.140625" collapsed="true"/>
     <col min="13" max="13" customWidth="true" width="12.28515625" collapsed="true"/>
     <col min="14" max="14" customWidth="true" width="12.140625" collapsed="true"/>
@@ -1312,67 +1328,67 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="M1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="O1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="S1" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="V1" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="X1" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="Z1" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AA1" s="2" t="s">
         <v>6</v>
@@ -1381,34 +1397,34 @@
         <v>7</v>
       </c>
       <c r="AC1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD1" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="AD1" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="AE1" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AF1" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="AG1" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="AH1" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="AI1" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AK1" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="AJ1" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="AL1" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM1" s="2" t="s">
         <v>8</v>
@@ -1429,170 +1445,174 @@
         <v>13</v>
       </c>
       <c r="AS1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AT1" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="AU1" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="AV1" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="AV1" s="7" t="s">
+      <c r="AW1" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="AW1" s="7" t="s">
+      <c r="AX1" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="AX1" s="7" t="s">
+      <c r="AY1" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="AY1" s="7" t="s">
+      <c r="AZ1" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="AZ1" s="7" t="s">
+      <c r="BA1" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="BA1" s="7" t="s">
+      <c r="BB1" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="BB1" s="7" t="s">
+      <c r="BC1" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="BC1" s="7" t="s">
+      <c r="BD1" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="BD1" s="7" t="s">
+      <c r="BE1" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="BE1" s="7" t="s">
+      <c r="BF1" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="BF1" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="BG1" s="7"/>
       <c r="BH1" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="BI1" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="BI1" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="BJ1" s="2"/>
       <c r="BK1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="BL1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="BM1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="BM1" s="2" t="s">
+      <c r="BN1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="BN1" s="3" t="s">
+      <c r="BO1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="BO1" s="2" t="s">
+      <c r="BP1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C2" t="s">
-        <v>208</v>
+        <v>241</v>
       </c>
       <c r="D2" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G2"/>
       <c r="H2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="K2"/>
       <c r="L2" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" t="s">
         <v>30</v>
       </c>
-      <c r="N2" t="s">
-        <v>31</v>
-      </c>
       <c r="O2" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="R2" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="R2" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="S2" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U2" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="V2" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="W2" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="X2" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y2" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="X2" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y2" s="5" t="s">
-        <v>108</v>
-      </c>
       <c r="Z2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA2"/>
       <c r="AB2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AC2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD2" t="s">
         <v>138</v>
       </c>
-      <c r="AD2" t="s">
-        <v>139</v>
-      </c>
       <c r="AE2" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF2"/>
       <c r="AG2"/>
       <c r="AH2"/>
-      <c r="AI2"/>
-      <c r="AJ2"/>
+      <c r="AI2" t="s">
+        <v>235</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>236</v>
+      </c>
       <c r="AK2"/>
       <c r="AL2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AM2"/>
       <c r="AN2"/>
@@ -1601,10 +1621,10 @@
       <c r="AQ2"/>
       <c r="AR2"/>
       <c r="AS2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT2" t="s">
         <v>35</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>36</v>
       </c>
       <c r="AU2"/>
       <c r="AV2"/>
@@ -1620,14 +1640,16 @@
       <c r="BF2"/>
       <c r="BG2"/>
       <c r="BH2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="BI2" t="s">
-        <v>211</v>
+        <v>237</v>
       </c>
       <c r="BJ2"/>
       <c r="BK2"/>
-      <c r="BL2"/>
+      <c r="BL2" t="s">
+        <v>239</v>
+      </c>
       <c r="BM2"/>
       <c r="BN2"/>
       <c r="BO2"/>
@@ -1635,91 +1657,91 @@
     </row>
     <row r="3" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G3"/>
       <c r="H3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="K3"/>
       <c r="L3" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="R3" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="R3" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="S3" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U3" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="V3" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="V3" s="5" t="s">
+      <c r="W3" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="W3" s="5" t="s">
+      <c r="X3" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y3" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="X3" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y3" s="5" t="s">
-        <v>108</v>
-      </c>
       <c r="Z3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA3"/>
       <c r="AB3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AC3" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD3" t="s">
         <v>138</v>
       </c>
-      <c r="AD3" t="s">
-        <v>139</v>
-      </c>
       <c r="AE3" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF3"/>
       <c r="AG3"/>
@@ -1728,7 +1750,7 @@
       <c r="AJ3"/>
       <c r="AK3"/>
       <c r="AL3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AM3"/>
       <c r="AN3"/>
@@ -1737,10 +1759,10 @@
       <c r="AQ3"/>
       <c r="AR3"/>
       <c r="AS3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AT3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AU3"/>
       <c r="AV3"/>
@@ -1756,10 +1778,10 @@
       <c r="BF3"/>
       <c r="BG3"/>
       <c r="BH3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="BI3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="BJ3"/>
       <c r="BK3"/>
@@ -1771,91 +1793,91 @@
     </row>
     <row r="4" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G4"/>
       <c r="H4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="K4"/>
       <c r="L4" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="R4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="R4" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="S4" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U4" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="V4" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="V4" s="5" t="s">
+      <c r="W4" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="W4" s="5" t="s">
+      <c r="X4" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y4" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="X4" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y4" s="5" t="s">
-        <v>108</v>
-      </c>
       <c r="Z4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AA4"/>
       <c r="AB4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AC4" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD4" t="s">
         <v>138</v>
       </c>
-      <c r="AD4" t="s">
-        <v>139</v>
-      </c>
       <c r="AE4" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF4"/>
       <c r="AG4"/>
@@ -1864,7 +1886,7 @@
       <c r="AJ4"/>
       <c r="AK4"/>
       <c r="AL4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AM4"/>
       <c r="AN4"/>
@@ -1873,10 +1895,10 @@
       <c r="AQ4"/>
       <c r="AR4"/>
       <c r="AS4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AT4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AU4"/>
       <c r="AV4"/>
@@ -1892,10 +1914,10 @@
       <c r="BF4"/>
       <c r="BG4"/>
       <c r="BH4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="BI4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="BJ4"/>
       <c r="BK4"/>
@@ -1907,91 +1929,91 @@
     </row>
     <row r="5" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G5"/>
       <c r="H5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K5"/>
       <c r="L5" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="R5" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="R5" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="S5" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U5" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="V5" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="V5" s="5" t="s">
+      <c r="W5" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="W5" s="5" t="s">
+      <c r="X5" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y5" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="X5" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y5" s="5" t="s">
-        <v>108</v>
-      </c>
       <c r="Z5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AA5"/>
       <c r="AB5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AC5" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD5" t="s">
         <v>138</v>
       </c>
-      <c r="AD5" t="s">
-        <v>139</v>
-      </c>
       <c r="AE5" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF5"/>
       <c r="AG5"/>
@@ -2000,7 +2022,7 @@
       <c r="AJ5"/>
       <c r="AK5"/>
       <c r="AL5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AM5"/>
       <c r="AN5"/>
@@ -2009,10 +2031,10 @@
       <c r="AQ5"/>
       <c r="AR5"/>
       <c r="AS5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AT5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AU5"/>
       <c r="AV5"/>
@@ -2028,10 +2050,10 @@
       <c r="BF5"/>
       <c r="BG5"/>
       <c r="BH5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="BI5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="BJ5"/>
       <c r="BK5"/>
@@ -2043,91 +2065,91 @@
     </row>
     <row r="6" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G6"/>
       <c r="H6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="K6"/>
       <c r="L6" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="R6" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="R6" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="S6" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U6" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="V6" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="V6" s="5" t="s">
+      <c r="W6" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="W6" s="5" t="s">
+      <c r="X6" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y6" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="X6" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y6" s="5" t="s">
-        <v>108</v>
-      </c>
       <c r="Z6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AA6"/>
       <c r="AB6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AC6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD6" t="s">
         <v>138</v>
       </c>
-      <c r="AD6" t="s">
-        <v>139</v>
-      </c>
       <c r="AE6" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF6"/>
       <c r="AG6"/>
@@ -2136,7 +2158,7 @@
       <c r="AJ6"/>
       <c r="AK6"/>
       <c r="AL6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AM6"/>
       <c r="AN6"/>
@@ -2145,10 +2167,10 @@
       <c r="AQ6"/>
       <c r="AR6"/>
       <c r="AS6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AT6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AU6"/>
       <c r="AV6"/>
@@ -2164,10 +2186,10 @@
       <c r="BF6"/>
       <c r="BG6"/>
       <c r="BH6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="BI6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="BJ6"/>
       <c r="BK6"/>
@@ -2179,91 +2201,91 @@
     </row>
     <row r="7" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G7"/>
       <c r="H7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="K7"/>
       <c r="L7" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="R7" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="R7" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="S7" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T7" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U7" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="V7" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="V7" s="5" t="s">
+      <c r="W7" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="W7" s="5" t="s">
+      <c r="X7" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y7" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="X7" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y7" s="5" t="s">
-        <v>108</v>
-      </c>
       <c r="Z7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AA7"/>
       <c r="AB7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AC7" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD7" t="s">
         <v>138</v>
       </c>
-      <c r="AD7" t="s">
-        <v>139</v>
-      </c>
       <c r="AE7" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF7"/>
       <c r="AG7"/>
@@ -2272,7 +2294,7 @@
       <c r="AJ7"/>
       <c r="AK7"/>
       <c r="AL7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AM7"/>
       <c r="AN7"/>
@@ -2281,10 +2303,10 @@
       <c r="AQ7"/>
       <c r="AR7"/>
       <c r="AS7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AT7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AU7"/>
       <c r="AV7"/>
@@ -2300,10 +2322,10 @@
       <c r="BF7"/>
       <c r="BG7"/>
       <c r="BH7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="BI7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="BJ7"/>
       <c r="BK7"/>
@@ -2315,91 +2337,91 @@
     </row>
     <row r="8" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G8"/>
       <c r="H8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="K8"/>
       <c r="L8" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="R8" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="R8" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="S8" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U8" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="V8" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="V8" s="5" t="s">
+      <c r="W8" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="W8" s="5" t="s">
+      <c r="X8" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y8" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="X8" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y8" s="5" t="s">
-        <v>108</v>
-      </c>
       <c r="Z8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AA8"/>
       <c r="AB8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AC8" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD8" t="s">
         <v>138</v>
       </c>
-      <c r="AD8" t="s">
-        <v>139</v>
-      </c>
       <c r="AE8" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF8"/>
       <c r="AG8"/>
@@ -2408,7 +2430,7 @@
       <c r="AJ8"/>
       <c r="AK8"/>
       <c r="AL8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AM8"/>
       <c r="AN8"/>
@@ -2417,10 +2439,10 @@
       <c r="AQ8"/>
       <c r="AR8"/>
       <c r="AS8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AT8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AU8"/>
       <c r="AV8"/>
@@ -2436,10 +2458,10 @@
       <c r="BF8"/>
       <c r="BG8"/>
       <c r="BH8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="BI8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="BJ8"/>
       <c r="BK8"/>
@@ -2451,87 +2473,87 @@
     </row>
     <row r="9" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J9"/>
       <c r="K9"/>
       <c r="L9" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M9" t="s">
+        <v>129</v>
+      </c>
+      <c r="N9" t="s">
         <v>130</v>
       </c>
-      <c r="N9" t="s">
-        <v>131</v>
-      </c>
       <c r="O9" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="R9" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="R9" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="S9" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T9" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U9" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="V9" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="V9" s="5" t="s">
+      <c r="W9" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="W9" s="5" t="s">
+      <c r="X9" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y9" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="X9" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y9" s="5" t="s">
-        <v>108</v>
-      </c>
       <c r="Z9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AA9"/>
       <c r="AB9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC9" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD9" t="s">
         <v>138</v>
       </c>
-      <c r="AD9" t="s">
-        <v>139</v>
-      </c>
       <c r="AE9" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF9"/>
       <c r="AG9"/>
@@ -2540,7 +2562,7 @@
       <c r="AJ9"/>
       <c r="AK9"/>
       <c r="AL9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AM9"/>
       <c r="AN9"/>
@@ -2549,10 +2571,10 @@
       <c r="AQ9"/>
       <c r="AR9"/>
       <c r="AS9" t="s">
+        <v>131</v>
+      </c>
+      <c r="AT9" t="s">
         <v>132</v>
-      </c>
-      <c r="AT9" t="s">
-        <v>133</v>
       </c>
       <c r="AU9"/>
       <c r="AV9"/>
@@ -2568,10 +2590,10 @@
       <c r="BF9"/>
       <c r="BG9"/>
       <c r="BH9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="BI9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="BJ9"/>
       <c r="BK9"/>
@@ -2583,87 +2605,87 @@
     </row>
     <row r="10" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J10"/>
       <c r="K10"/>
       <c r="L10" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="R10" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="R10" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="S10" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T10" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U10" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="V10" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="V10" s="5" t="s">
+      <c r="W10" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="W10" s="5" t="s">
+      <c r="X10" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y10" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="X10" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y10" s="5" t="s">
-        <v>108</v>
-      </c>
       <c r="Z10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AA10"/>
       <c r="AB10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AC10" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD10" t="s">
         <v>138</v>
       </c>
-      <c r="AD10" t="s">
-        <v>139</v>
-      </c>
       <c r="AE10" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF10"/>
       <c r="AG10"/>
@@ -2672,7 +2694,7 @@
       <c r="AJ10"/>
       <c r="AK10"/>
       <c r="AL10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AM10"/>
       <c r="AN10"/>
@@ -2681,10 +2703,10 @@
       <c r="AQ10"/>
       <c r="AR10"/>
       <c r="AS10" t="s">
+        <v>116</v>
+      </c>
+      <c r="AT10" t="s">
         <v>117</v>
-      </c>
-      <c r="AT10" t="s">
-        <v>118</v>
       </c>
       <c r="AU10"/>
       <c r="AV10"/>
@@ -2700,10 +2722,10 @@
       <c r="BF10"/>
       <c r="BG10"/>
       <c r="BH10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="BI10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="BJ10"/>
       <c r="BK10"/>
@@ -2715,87 +2737,87 @@
     </row>
     <row r="11" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G11"/>
       <c r="H11"/>
       <c r="I11" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J11"/>
       <c r="K11"/>
       <c r="L11" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="R11" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="R11" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="S11" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T11" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U11" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="V11" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="V11" s="5" t="s">
+      <c r="W11" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="W11" s="5" t="s">
+      <c r="X11" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y11" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="X11" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y11" s="5" t="s">
-        <v>108</v>
-      </c>
       <c r="Z11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AA11"/>
       <c r="AB11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AC11" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD11" t="s">
         <v>138</v>
       </c>
-      <c r="AD11" t="s">
-        <v>139</v>
-      </c>
       <c r="AE11" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF11"/>
       <c r="AG11"/>
@@ -2804,7 +2826,7 @@
       <c r="AJ11"/>
       <c r="AK11"/>
       <c r="AL11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AM11"/>
       <c r="AN11"/>
@@ -2813,10 +2835,10 @@
       <c r="AQ11"/>
       <c r="AR11"/>
       <c r="AS11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AT11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AU11"/>
       <c r="AV11"/>
@@ -2832,10 +2854,10 @@
       <c r="BF11"/>
       <c r="BG11"/>
       <c r="BH11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="BI11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="BJ11"/>
       <c r="BK11"/>
@@ -2847,87 +2869,87 @@
     </row>
     <row r="12" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G12"/>
       <c r="H12"/>
       <c r="I12" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="R12" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="R12" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="S12" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T12" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U12" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="V12" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="V12" s="5" t="s">
+      <c r="W12" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="W12" s="5" t="s">
+      <c r="X12" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y12" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="X12" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y12" s="5" t="s">
-        <v>108</v>
-      </c>
       <c r="Z12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AA12"/>
       <c r="AB12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AC12" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD12" t="s">
         <v>138</v>
       </c>
-      <c r="AD12" t="s">
-        <v>139</v>
-      </c>
       <c r="AE12" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF12"/>
       <c r="AG12"/>
@@ -2936,7 +2958,7 @@
       <c r="AJ12"/>
       <c r="AK12"/>
       <c r="AL12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AM12"/>
       <c r="AN12"/>
@@ -2945,10 +2967,10 @@
       <c r="AQ12"/>
       <c r="AR12"/>
       <c r="AS12" t="s">
+        <v>120</v>
+      </c>
+      <c r="AT12" t="s">
         <v>121</v>
-      </c>
-      <c r="AT12" t="s">
-        <v>122</v>
       </c>
       <c r="AU12"/>
       <c r="AV12"/>
@@ -2964,10 +2986,10 @@
       <c r="BF12"/>
       <c r="BG12"/>
       <c r="BH12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="BI12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="BJ12"/>
       <c r="BK12"/>
@@ -2979,87 +3001,87 @@
     </row>
     <row r="13" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G13"/>
       <c r="H13"/>
       <c r="I13" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J13"/>
       <c r="K13"/>
       <c r="L13" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="R13" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="R13" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="S13" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T13" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U13" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="V13" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="V13" s="5" t="s">
+      <c r="W13" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="W13" s="5" t="s">
+      <c r="X13" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y13" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="X13" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y13" s="5" t="s">
-        <v>108</v>
-      </c>
       <c r="Z13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AA13"/>
       <c r="AB13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AC13" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD13" t="s">
         <v>138</v>
       </c>
-      <c r="AD13" t="s">
-        <v>139</v>
-      </c>
       <c r="AE13" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF13"/>
       <c r="AG13"/>
@@ -3068,7 +3090,7 @@
       <c r="AJ13"/>
       <c r="AK13"/>
       <c r="AL13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AM13"/>
       <c r="AN13"/>
@@ -3077,10 +3099,10 @@
       <c r="AQ13"/>
       <c r="AR13"/>
       <c r="AS13" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT13" t="s">
         <v>123</v>
-      </c>
-      <c r="AT13" t="s">
-        <v>124</v>
       </c>
       <c r="AU13"/>
       <c r="AV13"/>
@@ -3096,10 +3118,10 @@
       <c r="BF13"/>
       <c r="BG13"/>
       <c r="BH13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="BI13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="BJ13"/>
       <c r="BK13"/>
@@ -3111,19 +3133,19 @@
     </row>
     <row r="14" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F14"/>
       <c r="G14"/>
@@ -3136,59 +3158,59 @@
       <c r="N14"/>
       <c r="O14"/>
       <c r="P14" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="R14" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="R14" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="S14" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T14" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U14" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="V14" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="V14" s="5" t="s">
+      <c r="W14" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="W14" s="5" t="s">
+      <c r="X14" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y14" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="X14" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y14" s="5" t="s">
-        <v>108</v>
-      </c>
       <c r="Z14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AA14"/>
       <c r="AB14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AC14" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD14" t="s">
         <v>138</v>
       </c>
-      <c r="AD14" t="s">
-        <v>139</v>
-      </c>
       <c r="AE14" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF14" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AG14" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="AH14" s="6" t="s">
         <v>172</v>
-      </c>
-      <c r="AH14" s="6" t="s">
-        <v>173</v>
       </c>
       <c r="AI14"/>
       <c r="AJ14"/>
@@ -3201,46 +3223,46 @@
       <c r="AQ14"/>
       <c r="AR14"/>
       <c r="AS14" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT14" t="s">
         <v>123</v>
       </c>
-      <c r="AT14" t="s">
-        <v>124</v>
-      </c>
       <c r="AU14" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AV14" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AW14" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AX14" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AY14" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AZ14" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BA14" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BB14" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BC14" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BD14" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BE14" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BF14" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BG14"/>
       <c r="BH14"/>
@@ -3255,13 +3277,13 @@
     </row>
     <row r="15" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
@@ -3292,13 +3314,13 @@
       <c r="AD15"/>
       <c r="AE15"/>
       <c r="AF15" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="AG15" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="AG15" s="6" t="s">
+      <c r="AH15" s="6" t="s">
         <v>172</v>
-      </c>
-      <c r="AH15" s="6" t="s">
-        <v>173</v>
       </c>
       <c r="AI15"/>
       <c r="AJ15"/>
@@ -3311,46 +3333,46 @@
       <c r="AQ15"/>
       <c r="AR15"/>
       <c r="AS15" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT15" t="s">
         <v>123</v>
       </c>
-      <c r="AT15" t="s">
-        <v>124</v>
-      </c>
       <c r="AU15" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AV15" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AW15" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AX15" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AY15" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AZ15" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BA15" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BB15" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BC15" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BD15" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BE15" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BF15" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BG15"/>
       <c r="BH15"/>
@@ -3365,13 +3387,13 @@
     </row>
     <row r="16" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
@@ -3402,13 +3424,13 @@
       <c r="AD16"/>
       <c r="AE16"/>
       <c r="AF16" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="AG16" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="AG16" s="6" t="s">
+      <c r="AH16" s="6" t="s">
         <v>172</v>
-      </c>
-      <c r="AH16" s="6" t="s">
-        <v>173</v>
       </c>
       <c r="AI16"/>
       <c r="AJ16"/>
@@ -3421,46 +3443,46 @@
       <c r="AQ16"/>
       <c r="AR16"/>
       <c r="AS16" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT16" t="s">
         <v>123</v>
       </c>
-      <c r="AT16" t="s">
-        <v>124</v>
-      </c>
       <c r="AU16" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AV16" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AW16" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AX16" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AY16" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AZ16" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BA16" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BB16" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BC16" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BD16" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BE16" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BF16" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BG16"/>
       <c r="BH16"/>
@@ -3475,13 +3497,13 @@
     </row>
     <row r="17" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
@@ -3512,13 +3534,13 @@
       <c r="AD17"/>
       <c r="AE17"/>
       <c r="AF17" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="AG17" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="AG17" s="6" t="s">
+      <c r="AH17" s="6" t="s">
         <v>172</v>
-      </c>
-      <c r="AH17" s="6" t="s">
-        <v>173</v>
       </c>
       <c r="AI17"/>
       <c r="AJ17"/>
@@ -3531,46 +3553,46 @@
       <c r="AQ17"/>
       <c r="AR17"/>
       <c r="AS17" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT17" t="s">
         <v>123</v>
       </c>
-      <c r="AT17" t="s">
-        <v>124</v>
-      </c>
       <c r="AU17" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AV17" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AW17" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AX17" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AY17" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AZ17" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BA17" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BB17" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BC17" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BD17" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BE17" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BF17" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BG17"/>
       <c r="BH17"/>
@@ -3585,19 +3607,19 @@
     </row>
     <row customFormat="1" r="18" s="8" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F18"/>
       <c r="G18"/>
@@ -3622,7 +3644,7 @@
       <c r="Z18"/>
       <c r="AA18"/>
       <c r="AB18" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AC18"/>
       <c r="AD18"/>
@@ -3656,7 +3678,7 @@
       <c r="BF18"/>
       <c r="BG18"/>
       <c r="BH18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="BI18"/>
       <c r="BJ18"/>
@@ -3669,13 +3691,13 @@
     </row>
     <row customFormat="1" r="19" s="8" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>143</v>
-      </c>
-      <c r="B19" t="s">
-        <v>149</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>144</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
@@ -3709,13 +3731,13 @@
       <c r="AG19"/>
       <c r="AH19"/>
       <c r="AI19" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AJ19" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AK19" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AL19"/>
       <c r="AM19"/>
@@ -3753,7 +3775,7 @@
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
@@ -3825,7 +3847,7 @@
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
@@ -3893,6 +3915,78 @@
       <c r="BO23"/>
       <c r="BP23"/>
     </row>
+    <row r="24" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24" t="s">
+        <v>234</v>
+      </c>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24"/>
+      <c r="Q24"/>
+      <c r="R24"/>
+      <c r="S24"/>
+      <c r="T24"/>
+      <c r="U24"/>
+      <c r="V24"/>
+      <c r="W24"/>
+      <c r="X24"/>
+      <c r="Y24"/>
+      <c r="Z24"/>
+      <c r="AA24"/>
+      <c r="AB24"/>
+      <c r="AC24"/>
+      <c r="AD24"/>
+      <c r="AE24"/>
+      <c r="AF24"/>
+      <c r="AG24"/>
+      <c r="AH24"/>
+      <c r="AI24"/>
+      <c r="AJ24"/>
+      <c r="AK24"/>
+      <c r="AL24"/>
+      <c r="AM24"/>
+      <c r="AN24"/>
+      <c r="AO24"/>
+      <c r="AP24"/>
+      <c r="AQ24"/>
+      <c r="AR24"/>
+      <c r="AS24"/>
+      <c r="AT24"/>
+      <c r="AU24"/>
+      <c r="AV24"/>
+      <c r="AW24"/>
+      <c r="AX24"/>
+      <c r="AY24"/>
+      <c r="AZ24"/>
+      <c r="BA24"/>
+      <c r="BB24"/>
+      <c r="BC24"/>
+      <c r="BD24"/>
+      <c r="BE24"/>
+      <c r="BF24"/>
+      <c r="BG24"/>
+      <c r="BH24"/>
+      <c r="BI24"/>
+      <c r="BJ24"/>
+      <c r="BK24"/>
+      <c r="BL24"/>
+      <c r="BM24"/>
+      <c r="BN24"/>
+      <c r="BO24"/>
+      <c r="BP24"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
@@ -3927,196 +4021,188 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C2" t="s">
         <v>26</v>
       </c>
-      <c r="B2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
       <c r="D2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>192</v>
-      </c>
-      <c r="B14"/>
-      <c r="C14"/>
+        <v>191</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>205</v>
-      </c>
-      <c r="B15"/>
-      <c r="C15"/>
+        <v>204</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>206</v>
-      </c>
-      <c r="B16"/>
-      <c r="C16"/>
+        <v>205</v>
+      </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>207</v>
-      </c>
-      <c r="B17"/>
-      <c r="C17"/>
+        <v>206</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
